--- a/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H2">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I2">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J2">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0694673901208549</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N2">
-        <v>0.0694673901208549</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O2">
-        <v>0.02497769656176403</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P2">
-        <v>0.02497769656176403</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q2">
-        <v>4.447551898252761</v>
+        <v>13.08722352983</v>
       </c>
       <c r="R2">
-        <v>4.447551898252761</v>
+        <v>117.78501176847</v>
       </c>
       <c r="S2">
-        <v>0.002520655772817108</v>
+        <v>0.005348118061828994</v>
       </c>
       <c r="T2">
-        <v>0.002520655772817108</v>
+        <v>0.006664714426252711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H3">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I3">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J3">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.1495698006026</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N3">
-        <v>1.1495698006026</v>
+        <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.4133393467937292</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P3">
-        <v>0.4133393467937292</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q3">
-        <v>73.59958881353208</v>
+        <v>85.43705967709001</v>
       </c>
       <c r="R3">
-        <v>73.59958881353208</v>
+        <v>768.9335370938101</v>
       </c>
       <c r="S3">
-        <v>0.04171266185621737</v>
+        <v>0.03491401220183347</v>
       </c>
       <c r="T3">
-        <v>0.04171266185621737</v>
+        <v>0.04350912192098183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H4">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I4">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J4">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.226787560066387</v>
+        <v>0.167083</v>
       </c>
       <c r="N4">
-        <v>0.226787560066387</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O4">
-        <v>0.08154374087562649</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P4">
-        <v>0.08154374087562649</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q4">
-        <v>14.51975439869827</v>
+        <v>11.795621040042</v>
       </c>
       <c r="R4">
-        <v>14.51975439869827</v>
+        <v>106.160589360378</v>
       </c>
       <c r="S4">
-        <v>0.008229089526609812</v>
+        <v>0.004820302319353612</v>
       </c>
       <c r="T4">
-        <v>0.008229089526609812</v>
+        <v>0.006006961333929254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H5">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I5">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J5">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.33535204624099</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N5">
-        <v>1.33535204624099</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O5">
-        <v>0.4801392157688803</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P5">
-        <v>0.4801392157688803</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q5">
-        <v>85.49403565849315</v>
+        <v>17.268094147942</v>
       </c>
       <c r="R5">
-        <v>85.49403565849315</v>
+        <v>155.412847331478</v>
       </c>
       <c r="S5">
-        <v>0.04845385494178784</v>
+        <v>0.007056638560155457</v>
       </c>
       <c r="T5">
-        <v>0.04845385494178784</v>
+        <v>0.008793837433842169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>185.530546848043</v>
+        <v>70.597374</v>
       </c>
       <c r="H6">
-        <v>185.530546848043</v>
+        <v>211.792122</v>
       </c>
       <c r="I6">
-        <v>0.2924398408899263</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J6">
-        <v>0.2924398408899263</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0694673901208549</v>
+        <v>1.7922885</v>
       </c>
       <c r="N6">
-        <v>0.0694673901208549</v>
+        <v>3.584577</v>
       </c>
       <c r="O6">
-        <v>0.02497769656176403</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P6">
-        <v>0.02497769656176403</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q6">
-        <v>12.88832287722855</v>
+        <v>126.530861550399</v>
       </c>
       <c r="R6">
-        <v>12.88832287722855</v>
+        <v>759.185169302394</v>
       </c>
       <c r="S6">
-        <v>0.00730447360831913</v>
+        <v>0.05170707021959629</v>
       </c>
       <c r="T6">
-        <v>0.00730447360831913</v>
+        <v>0.04295752298257378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H7">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J7">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1495698006026</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N7">
-        <v>1.1495698006026</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O7">
-        <v>0.4133393467937292</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P7">
-        <v>0.4133393467937292</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q7">
-        <v>213.2803137457961</v>
+        <v>37.40003679270389</v>
       </c>
       <c r="R7">
-        <v>213.2803137457961</v>
+        <v>336.600331134335</v>
       </c>
       <c r="S7">
-        <v>0.1208768928099042</v>
+        <v>0.01528359409680892</v>
       </c>
       <c r="T7">
-        <v>0.1208768928099042</v>
+        <v>0.01904609974656356</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H8">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J8">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226787560066387</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N8">
-        <v>0.226787560066387</v>
+        <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.08154374087562649</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P8">
-        <v>0.08154374087562649</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q8">
-        <v>42.07602003745018</v>
+        <v>244.1579123410228</v>
       </c>
       <c r="R8">
-        <v>42.07602003745018</v>
+        <v>2197.421211069205</v>
       </c>
       <c r="S8">
-        <v>0.02384663860723759</v>
+        <v>0.09977558173077573</v>
       </c>
       <c r="T8">
-        <v>0.02384663860723759</v>
+        <v>0.1243382721288399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H9">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J9">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.33535204624099</v>
+        <v>0.167083</v>
       </c>
       <c r="N9">
-        <v>1.33535204624099</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O9">
-        <v>0.4801392157688803</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P9">
-        <v>0.4801392157688803</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q9">
-        <v>247.7485953737441</v>
+        <v>33.70895743354767</v>
       </c>
       <c r="R9">
-        <v>247.7485953737441</v>
+        <v>303.380616901929</v>
       </c>
       <c r="S9">
-        <v>0.1404118358644653</v>
+        <v>0.01377522770088445</v>
       </c>
       <c r="T9">
-        <v>0.1404118358644653</v>
+        <v>0.01716640465330403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>134.091029753603</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H10">
-        <v>134.091029753603</v>
+        <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.211359046109143</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J10">
-        <v>0.211359046109143</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0694673901208549</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N10">
-        <v>0.0694673901208549</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O10">
-        <v>0.02497769656176403</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P10">
-        <v>0.02497769656176403</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q10">
-        <v>9.314953875600702</v>
+        <v>49.34792738894212</v>
       </c>
       <c r="R10">
-        <v>9.314953875600702</v>
+        <v>444.1313465004791</v>
       </c>
       <c r="S10">
-        <v>0.005279262119298066</v>
+        <v>0.02016612165147724</v>
       </c>
       <c r="T10">
-        <v>0.005279262119298066</v>
+        <v>0.02513060488537603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>134.091029753603</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H11">
-        <v>134.091029753603</v>
+        <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.211359046109143</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J11">
-        <v>0.211359046109143</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.1495698006026</v>
+        <v>1.7922885</v>
       </c>
       <c r="N11">
-        <v>1.1495698006026</v>
+        <v>3.584577</v>
       </c>
       <c r="O11">
-        <v>0.4133393467937292</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P11">
-        <v>0.4133393467937292</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q11">
-        <v>154.1469983364467</v>
+        <v>361.5937992203695</v>
       </c>
       <c r="R11">
-        <v>154.1469983364467</v>
+        <v>2169.562795322217</v>
       </c>
       <c r="S11">
-        <v>0.08736301005769885</v>
+        <v>0.1477659737566158</v>
       </c>
       <c r="T11">
-        <v>0.08736301005769885</v>
+        <v>0.1227619392615778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H12">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I12">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J12">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226787560066387</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N12">
-        <v>0.226787560066387</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O12">
-        <v>0.08154374087562649</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P12">
-        <v>0.08154374087562649</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q12">
-        <v>30.41017746460893</v>
+        <v>26.03943422750278</v>
       </c>
       <c r="R12">
-        <v>30.41017746460893</v>
+        <v>234.354908047525</v>
       </c>
       <c r="S12">
-        <v>0.01723500728764355</v>
+        <v>0.01064106288048743</v>
       </c>
       <c r="T12">
-        <v>0.01723500728764355</v>
+        <v>0.01326067309478825</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H13">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I13">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J13">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.33535204624099</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N13">
-        <v>1.33535204624099</v>
+        <v>3.630605</v>
       </c>
       <c r="O13">
-        <v>0.4801392157688803</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P13">
-        <v>0.4801392157688803</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q13">
-        <v>179.0587309640352</v>
+        <v>169.9927177817306</v>
       </c>
       <c r="R13">
-        <v>179.0587309640352</v>
+        <v>1529.934460035575</v>
       </c>
       <c r="S13">
-        <v>0.1014817666445025</v>
+        <v>0.06946783802352322</v>
       </c>
       <c r="T13">
-        <v>0.1014817666445025</v>
+        <v>0.0865693870037018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>180.811697386847</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H14">
-        <v>180.811697386847</v>
+        <v>421.399315</v>
       </c>
       <c r="I14">
-        <v>0.2850018226818199</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J14">
-        <v>0.2850018226818199</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.0694673901208549</v>
+        <v>0.167083</v>
       </c>
       <c r="N14">
-        <v>0.0694673901208549</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O14">
-        <v>0.02497769656176403</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P14">
-        <v>0.02497769656176403</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q14">
-        <v>12.56051672078606</v>
+        <v>23.46955391604833</v>
       </c>
       <c r="R14">
-        <v>12.56051672078606</v>
+        <v>211.225985244435</v>
       </c>
       <c r="S14">
-        <v>0.007118689046496174</v>
+        <v>0.009590876545769365</v>
       </c>
       <c r="T14">
-        <v>0.007118689046496174</v>
+        <v>0.01195195254405768</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>180.811697386847</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H15">
-        <v>180.811697386847</v>
+        <v>421.399315</v>
       </c>
       <c r="I15">
-        <v>0.2850018226818199</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J15">
-        <v>0.2850018226818199</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1495698006026</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N15">
-        <v>1.1495698006026</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O15">
-        <v>0.4133393467937292</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P15">
-        <v>0.4133393467937292</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q15">
-        <v>207.8556669116153</v>
+        <v>34.35804399418723</v>
       </c>
       <c r="R15">
-        <v>207.8556669116153</v>
+        <v>309.222395947685</v>
       </c>
       <c r="S15">
-        <v>0.1178024672223257</v>
+        <v>0.01404047812246811</v>
       </c>
       <c r="T15">
-        <v>0.1178024672223257</v>
+        <v>0.01749695425801743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>180.811697386847</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H16">
-        <v>180.811697386847</v>
+        <v>421.399315</v>
       </c>
       <c r="I16">
-        <v>0.2850018226818199</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J16">
-        <v>0.2850018226818199</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226787560066387</v>
+        <v>1.7922885</v>
       </c>
       <c r="N16">
-        <v>0.226787560066387</v>
+        <v>3.584577</v>
       </c>
       <c r="O16">
-        <v>0.08154374087562649</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P16">
-        <v>0.08154374087562649</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q16">
-        <v>41.00584368182495</v>
+        <v>251.7563820607925</v>
       </c>
       <c r="R16">
-        <v>41.00584368182495</v>
+        <v>1510.538292364755</v>
       </c>
       <c r="S16">
-        <v>0.02324011477784757</v>
+        <v>0.1028807104128018</v>
       </c>
       <c r="T16">
-        <v>0.02324011477784757</v>
+        <v>0.08547187963371625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H17">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I17">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J17">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33535204624099</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N17">
-        <v>1.33535204624099</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O17">
-        <v>0.4801392157688803</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P17">
-        <v>0.4801392157688803</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q17">
-        <v>241.4472700898328</v>
+        <v>35.18553428794055</v>
       </c>
       <c r="R17">
-        <v>241.4472700898328</v>
+        <v>316.6698085914649</v>
       </c>
       <c r="S17">
-        <v>0.1368405516351505</v>
+        <v>0.01437863355902217</v>
       </c>
       <c r="T17">
-        <v>0.1368405516351505</v>
+        <v>0.01791835658875561</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>69.96608420987231</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H18">
-        <v>69.96608420987231</v>
+        <v>569.411759</v>
       </c>
       <c r="I18">
-        <v>0.1102830282216789</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J18">
-        <v>0.1102830282216789</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0694673901208549</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N18">
-        <v>0.0694673901208549</v>
+        <v>3.630605</v>
       </c>
       <c r="O18">
-        <v>0.02497769656176403</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P18">
-        <v>0.02497769656176403</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q18">
-        <v>4.860361267035786</v>
+        <v>229.7010199204661</v>
       </c>
       <c r="R18">
-        <v>4.860361267035786</v>
+        <v>2067.309179284195</v>
       </c>
       <c r="S18">
-        <v>0.002754616014833554</v>
+        <v>0.09386774594757334</v>
       </c>
       <c r="T18">
-        <v>0.002754616014833554</v>
+        <v>0.1169760490221242</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>69.96608420987231</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H19">
-        <v>69.96608420987231</v>
+        <v>569.411759</v>
       </c>
       <c r="I19">
-        <v>0.1102830282216789</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J19">
-        <v>0.1102830282216789</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.1495698006026</v>
+        <v>0.167083</v>
       </c>
       <c r="N19">
-        <v>1.1495698006026</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O19">
-        <v>0.4133393467937292</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P19">
-        <v>0.4133393467937292</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q19">
-        <v>80.43089747408763</v>
+        <v>31.71300830966566</v>
       </c>
       <c r="R19">
-        <v>80.43089747408763</v>
+        <v>285.417074786991</v>
       </c>
       <c r="S19">
-        <v>0.04558431484758315</v>
+        <v>0.01295957940576713</v>
       </c>
       <c r="T19">
-        <v>0.04558431484758315</v>
+        <v>0.01614996057028808</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>69.96608420987231</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H20">
-        <v>69.96608420987231</v>
+        <v>569.411759</v>
       </c>
       <c r="I20">
-        <v>0.1102830282216789</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J20">
-        <v>0.1102830282216789</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.226787560066387</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N20">
-        <v>0.226787560066387</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O20">
-        <v>0.08154374087562649</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P20">
-        <v>0.08154374087562649</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q20">
-        <v>15.86743752535631</v>
+        <v>46.42597548249344</v>
       </c>
       <c r="R20">
-        <v>15.86743752535631</v>
+        <v>417.833779342441</v>
       </c>
       <c r="S20">
-        <v>0.008992890676287986</v>
+        <v>0.0189720606093429</v>
       </c>
       <c r="T20">
-        <v>0.008992890676287986</v>
+        <v>0.0236425906416109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>69.96608420987231</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H21">
-        <v>69.96608420987231</v>
+        <v>569.411759</v>
       </c>
       <c r="I21">
-        <v>0.1102830282216789</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J21">
-        <v>0.1102830282216789</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.33535204624099</v>
+        <v>1.7922885</v>
       </c>
       <c r="N21">
-        <v>1.33535204624099</v>
+        <v>3.584577</v>
       </c>
       <c r="O21">
-        <v>0.4801392157688803</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P21">
-        <v>0.4801392157688803</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q21">
-        <v>93.42935371712241</v>
+        <v>340.1833824734904</v>
       </c>
       <c r="R21">
-        <v>93.42935371712241</v>
+        <v>2041.100294840943</v>
       </c>
       <c r="S21">
-        <v>0.05295120668297419</v>
+        <v>0.1390165674173511</v>
       </c>
       <c r="T21">
-        <v>0.05295120668297419</v>
+        <v>0.1154930527764874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>77.2091405</v>
+      </c>
+      <c r="H22">
+        <v>154.418281</v>
+      </c>
+      <c r="I22">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J22">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1853783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.5561349999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.05150040234182901</v>
+      </c>
+      <c r="P22">
+        <v>0.06174910743679608</v>
+      </c>
+      <c r="Q22">
+        <v>14.31290178398917</v>
+      </c>
+      <c r="R22">
+        <v>85.877410703935</v>
+      </c>
+      <c r="S22">
+        <v>0.005848993743681493</v>
+      </c>
+      <c r="T22">
+        <v>0.004859263580435938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>77.2091405</v>
+      </c>
+      <c r="H23">
+        <v>154.418281</v>
+      </c>
+      <c r="I23">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J23">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.210201666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.630605</v>
+      </c>
+      <c r="O23">
+        <v>0.3362090468038446</v>
+      </c>
+      <c r="P23">
+        <v>0.4031154633417589</v>
+      </c>
+      <c r="Q23">
+        <v>93.43863051500084</v>
+      </c>
+      <c r="R23">
+        <v>560.631783090005</v>
+      </c>
+      <c r="S23">
+        <v>0.0381838689001389</v>
+      </c>
+      <c r="T23">
+        <v>0.03172263326611097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>77.2091405</v>
+      </c>
+      <c r="H24">
+        <v>154.418281</v>
+      </c>
+      <c r="I24">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J24">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.167083</v>
+      </c>
+      <c r="N24">
+        <v>0.5012489999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.04641773161811331</v>
+      </c>
+      <c r="P24">
+        <v>0.05565497289972147</v>
+      </c>
+      <c r="Q24">
+        <v>12.9003348221615</v>
+      </c>
+      <c r="R24">
+        <v>77.402008932969</v>
+      </c>
+      <c r="S24">
+        <v>0.005271745646338757</v>
+      </c>
+      <c r="T24">
+        <v>0.004379693798142418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>77.2091405</v>
+      </c>
+      <c r="H25">
+        <v>154.418281</v>
+      </c>
+      <c r="I25">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J25">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2445996666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.7337990000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.06795282393309501</v>
+      </c>
+      <c r="P25">
+        <v>0.08147560086672037</v>
+      </c>
+      <c r="Q25">
+        <v>18.88533002991984</v>
+      </c>
+      <c r="R25">
+        <v>113.311980179519</v>
+      </c>
+      <c r="S25">
+        <v>0.007717524989651321</v>
+      </c>
+      <c r="T25">
+        <v>0.006411613647873828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>77.2091405</v>
+      </c>
+      <c r="H26">
+        <v>154.418281</v>
+      </c>
+      <c r="I26">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J26">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.7922885</v>
+      </c>
+      <c r="N26">
+        <v>3.584577</v>
+      </c>
+      <c r="O26">
+        <v>0.4979199953031181</v>
+      </c>
+      <c r="P26">
+        <v>0.3980048554550032</v>
+      </c>
+      <c r="Q26">
+        <v>138.3810546130343</v>
+      </c>
+      <c r="R26">
+        <v>553.524218452137</v>
+      </c>
+      <c r="S26">
+        <v>0.05654967349675324</v>
+      </c>
+      <c r="T26">
+        <v>0.03132046080064789</v>
       </c>
     </row>
   </sheetData>
